--- a/variant_11/Задание 18/18.xlsx
+++ b/variant_11/Задание 18/18.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josef\YandexDisk\BeeGeek\ИНформатика\2020-2021\Варианты\6 вариант\Файлы\Задание 18\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F690D57-5EFD-4ED9-BB6F-C4E1FBF0553C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,8 +19,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -35,13 +29,27 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -56,8 +64,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -118,7 +127,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -153,7 +162,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -330,23 +339,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="A1:J10"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>51</v>
       </c>
@@ -378,7 +387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>57</v>
       </c>
@@ -410,7 +419,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>52</v>
       </c>
@@ -442,7 +451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -474,7 +483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>99</v>
       </c>
@@ -506,7 +515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>35</v>
       </c>
@@ -538,7 +547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -570,7 +579,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11</v>
       </c>
@@ -602,7 +611,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>22</v>
       </c>
@@ -634,7 +643,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>40</v>
       </c>
@@ -664,6 +673,832 @@
       </c>
       <c r="J10">
         <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" ref="A12:A20" si="0">A1 + A11</f>
+        <v>51</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ref="B12:B21" si="1" xml:space="preserve"> B1 + MAX(B11,A12)</f>
+        <v>63</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:C21" si="2" xml:space="preserve"> C1 + MAX(C11,B12)</f>
+        <v>78</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:D21" si="3" xml:space="preserve"> D1 + MAX(D11,C12)</f>
+        <v>126</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:E21" si="4" xml:space="preserve"> E1 + MAX(E11,D12)</f>
+        <v>171</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:F21" si="5" xml:space="preserve"> F1 + MAX(F11,E12)</f>
+        <v>271</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:G21" si="6" xml:space="preserve"> G1 + MAX(G11,F12)</f>
+        <v>370</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12:H21" si="7" xml:space="preserve"> H1 + MAX(H11,G12)</f>
+        <v>409</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ref="I12:I21" si="8" xml:space="preserve"> I1 + MAX(I11,H12)</f>
+        <v>427</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:J20" si="9" xml:space="preserve"> J1 + MAX(J11,I12)</f>
+        <v>428</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12:L21" si="10">A1 + MIN(L11,K12)</f>
+        <v>51</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ref="M12:M21" si="11">B1 + MIN(M11,L12)</f>
+        <v>63</v>
+      </c>
+      <c r="N12">
+        <f t="shared" ref="N12:N21" si="12">C1 + MIN(N11,M12)</f>
+        <v>78</v>
+      </c>
+      <c r="O12">
+        <f t="shared" ref="O12:O21" si="13">D1 + MIN(O11,N12)</f>
+        <v>126</v>
+      </c>
+      <c r="P12">
+        <f t="shared" ref="P12:P21" si="14">E1 + MIN(P11,O12)</f>
+        <v>171</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" ref="Q12:Q21" si="15">F1 + MIN(Q11,P12)</f>
+        <v>271</v>
+      </c>
+      <c r="R12">
+        <f t="shared" ref="R12:R21" si="16">G1 + MIN(R11,Q12)</f>
+        <v>370</v>
+      </c>
+      <c r="S12">
+        <f t="shared" ref="S12:S21" si="17">H1 + MIN(S11,R12)</f>
+        <v>409</v>
+      </c>
+      <c r="T12">
+        <f t="shared" ref="T12:T21" si="18">I1 + MIN(T11,S12)</f>
+        <v>427</v>
+      </c>
+      <c r="U12">
+        <f t="shared" ref="U12:U20" si="19">J1 + MIN(U11,T12)</f>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>151</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>299</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="4"/>
+        <v>391</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="5"/>
+        <v>401</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="6"/>
+        <v>494</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="7"/>
+        <v>526</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="8"/>
+        <v>545</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="9"/>
+        <v>603</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="10"/>
+        <v>108</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="11"/>
+        <v>106</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="12"/>
+        <v>175</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="13"/>
+        <v>177</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="14"/>
+        <v>263</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="15"/>
+        <v>273</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="16"/>
+        <v>366</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="17"/>
+        <v>398</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="18"/>
+        <v>417</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="19"/>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>176</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>279</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>315</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="4"/>
+        <v>469</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="5"/>
+        <v>557</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="6"/>
+        <v>647</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="7"/>
+        <v>719</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="8"/>
+        <v>756</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="9"/>
+        <v>767</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="10"/>
+        <v>160</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="11"/>
+        <v>122</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="12"/>
+        <v>153</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="13"/>
+        <v>169</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="14"/>
+        <v>247</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="15"/>
+        <v>335</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="16"/>
+        <v>425</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="17"/>
+        <v>470</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="18"/>
+        <v>454</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="19"/>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>177</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>343</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>368</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="4"/>
+        <v>565</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="5"/>
+        <v>615</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="6"/>
+        <v>728</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="7"/>
+        <v>730</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="8"/>
+        <v>847</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="9"/>
+        <v>849</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="10"/>
+        <v>170</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="11"/>
+        <v>123</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="12"/>
+        <v>187</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="13"/>
+        <v>194</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="14"/>
+        <v>290</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="15"/>
+        <v>340</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="16"/>
+        <v>421</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="17"/>
+        <v>423</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="18"/>
+        <v>514</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="19"/>
+        <v>467</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>269</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>271</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>346</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
+        <v>375</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>605</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>691</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="6"/>
+        <v>761</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="7"/>
+        <v>795</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="8"/>
+        <v>852</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="9"/>
+        <v>854</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="10"/>
+        <v>269</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="11"/>
+        <v>125</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="12"/>
+        <v>128</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="13"/>
+        <v>135</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="14"/>
+        <v>175</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="15"/>
+        <v>251</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="16"/>
+        <v>284</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="17"/>
+        <v>318</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="18"/>
+        <v>323</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="19"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>304</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>323</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>388</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>465</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="4"/>
+        <v>689</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>699</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="6"/>
+        <v>783</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="7"/>
+        <v>895</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="8"/>
+        <v>905</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="9"/>
+        <v>907</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="10"/>
+        <v>304</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="11"/>
+        <v>144</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="12"/>
+        <v>170</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="13"/>
+        <v>212</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="14"/>
+        <v>259</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="15"/>
+        <v>259</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="16"/>
+        <v>281</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="17"/>
+        <v>381</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="18"/>
+        <v>333</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="19"/>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>306</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>380</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>415</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>491</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="4"/>
+        <v>740</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="5"/>
+        <v>773</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="6"/>
+        <v>883</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="7"/>
+        <v>896</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="8"/>
+        <v>912</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="9"/>
+        <v>997</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="10"/>
+        <v>306</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="11"/>
+        <v>201</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="12"/>
+        <v>197</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="13"/>
+        <v>223</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="14"/>
+        <v>274</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="15"/>
+        <v>292</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="16"/>
+        <v>381</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="17"/>
+        <v>382</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="18"/>
+        <v>340</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="19"/>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>317</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>392</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>464</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>537</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="4"/>
+        <v>777</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="5"/>
+        <v>846</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="6"/>
+        <v>963</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="7"/>
+        <v>994</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="8"/>
+        <v>997</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="9"/>
+        <v>1036</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="10"/>
+        <v>317</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="11"/>
+        <v>213</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="12"/>
+        <v>246</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="13"/>
+        <v>269</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="14"/>
+        <v>306</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="15"/>
+        <v>361</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="16"/>
+        <v>441</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="17"/>
+        <v>413</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="18"/>
+        <v>343</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="19"/>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>339</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>463</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>539</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="4"/>
+        <v>788</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="5"/>
+        <v>849</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="6"/>
+        <v>1002</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="7"/>
+        <v>1018</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="8"/>
+        <v>1082</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="9"/>
+        <v>1132</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="10"/>
+        <v>339</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="11"/>
+        <v>284</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="12"/>
+        <v>321</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="13"/>
+        <v>280</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="14"/>
+        <v>291</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="15"/>
+        <v>294</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="16"/>
+        <v>333</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="17"/>
+        <v>349</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="18"/>
+        <v>407</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="19"/>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>A10 + A20</f>
+        <v>379</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>465</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>570</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="3"/>
+        <v>574</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="4"/>
+        <v>793</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="5"/>
+        <v>850</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="6"/>
+        <v>1046</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="7"/>
+        <v>1059</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="8"/>
+        <v>1122</v>
+      </c>
+      <c r="J21" s="1">
+        <f xml:space="preserve"> J10 + MAX(J20,I21)</f>
+        <v>1165</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="10"/>
+        <v>379</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="11"/>
+        <v>286</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="12"/>
+        <v>317</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="13"/>
+        <v>284</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="14"/>
+        <v>289</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="15"/>
+        <v>290</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="16"/>
+        <v>334</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="17"/>
+        <v>347</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="18"/>
+        <v>387</v>
+      </c>
+      <c r="U21" s="1">
+        <f>J10 + MIN(U20,T21)</f>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <f>J21+U21</f>
+        <v>1585</v>
       </c>
     </row>
   </sheetData>
